--- a/templates/orgm/mprpdtmpl.xlsx
+++ b/templates/orgm/mprpdtmpl.xlsx
@@ -133,13 +133,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,11 +204,6 @@
       <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -716,19 +712,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -816,13 +812,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1193,11 +1189,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1226,7 +1222,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:I9"/>
+      <selection activeCell="D7" sqref="D7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1561,7 +1557,7 @@
     <mergeCell ref="R3:R5"/>
     <mergeCell ref="N3:O4"/>
   </mergeCells>
-  <pageMargins left="0.314583333333333" right="0.314583333333333" top="0.354166666666667" bottom="0.354166666666667" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.313888888888889" right="0.313888888888889" top="0.354166666666667" bottom="0.354166666666667" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/templates/orgm/mprpdtmpl.xlsx
+++ b/templates/orgm/mprpdtmpl.xlsx
@@ -134,13 +134,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -187,13 +187,13 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -203,6 +203,18 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,7 +730,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,19 +824,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +887,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1234,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:Q7"/>
+      <selection activeCell="D7" sqref="D7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1231,7 +1243,7 @@
     <col min="2" max="2" width="16.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="19.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="5" max="5" width="6.14166666666667" customWidth="1"/>
     <col min="6" max="6" width="7.55833333333333" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="5.21666666666667" customWidth="1"/>
@@ -1442,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="63" spans="1:18">
+    <row r="7" ht="51" spans="1:18">
       <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
